--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Plxnd1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H2">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I2">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J2">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N2">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O2">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P2">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q2">
-        <v>1529.915299493879</v>
+        <v>61.20476809209111</v>
       </c>
       <c r="R2">
-        <v>13769.23769544491</v>
+        <v>550.84291282882</v>
       </c>
       <c r="S2">
-        <v>0.3730471403466791</v>
+        <v>0.01530068575072598</v>
       </c>
       <c r="T2">
-        <v>0.373047140346679</v>
+        <v>0.01530068575072598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H3">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I3">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J3">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q3">
-        <v>389.5867753382266</v>
+        <v>11.84257140299333</v>
       </c>
       <c r="R3">
-        <v>3506.28097804404</v>
+        <v>106.58314262694</v>
       </c>
       <c r="S3">
-        <v>0.09499495331858471</v>
+        <v>0.002960544891618496</v>
       </c>
       <c r="T3">
-        <v>0.09499495331858469</v>
+        <v>0.002960544891618497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H4">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I4">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J4">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N4">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q4">
-        <v>557.5544708775102</v>
+        <v>12.80208667444311</v>
       </c>
       <c r="R4">
-        <v>5017.990237897592</v>
+        <v>115.218780069988</v>
       </c>
       <c r="S4">
-        <v>0.1359513830714477</v>
+        <v>0.00320041577258296</v>
       </c>
       <c r="T4">
-        <v>0.1359513830714477</v>
+        <v>0.003200415772582961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H5">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I5">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J5">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N5">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q5">
-        <v>485.1073102072461</v>
+        <v>7.356518741132444</v>
       </c>
       <c r="R5">
-        <v>4365.965791865216</v>
+        <v>66.208668670192</v>
       </c>
       <c r="S5">
-        <v>0.1182862181285132</v>
+        <v>0.001839068833788112</v>
       </c>
       <c r="T5">
-        <v>0.1182862181285132</v>
+        <v>0.001839068833788112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H6">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I6">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J6">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N6">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O6">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P6">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q6">
-        <v>125.5383524841689</v>
+        <v>3.595300481049777</v>
       </c>
       <c r="R6">
-        <v>1129.84517235752</v>
+        <v>32.35770432944799</v>
       </c>
       <c r="S6">
-        <v>0.03061066414169812</v>
+        <v>0.0008987953807325196</v>
       </c>
       <c r="T6">
-        <v>0.03061066414169811</v>
+        <v>0.0008987953807325196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H7">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I7">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J7">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N7">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O7">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P7">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q7">
-        <v>631.3881766600275</v>
+        <v>16.02963026906133</v>
       </c>
       <c r="R7">
-        <v>5682.493589940248</v>
+        <v>144.266672421552</v>
       </c>
       <c r="S7">
-        <v>0.1539546364623236</v>
+        <v>0.004007274973711169</v>
       </c>
       <c r="T7">
-        <v>0.1539546364623236</v>
+        <v>0.00400727497371117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H8">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I8">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J8">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N8">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O8">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P8">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q8">
-        <v>1.292113686124222</v>
+        <v>2013.462061988902</v>
       </c>
       <c r="R8">
-        <v>11.629023175118</v>
+        <v>18121.15855790012</v>
       </c>
       <c r="S8">
-        <v>0.0003150627461343171</v>
+        <v>0.5033488605846361</v>
       </c>
       <c r="T8">
-        <v>0.0003150627461343169</v>
+        <v>0.5033488605846361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H9">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I9">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J9">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q9">
-        <v>0.3290315512983333</v>
+        <v>389.5867753382266</v>
       </c>
       <c r="R9">
-        <v>2.961283961685</v>
+        <v>3506.280978044039</v>
       </c>
       <c r="S9">
-        <v>8.022946063503041E-05</v>
+        <v>0.09739347125896818</v>
       </c>
       <c r="T9">
-        <v>8.022946063503037E-05</v>
+        <v>0.0973934712589682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H10">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I10">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J10">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N10">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q10">
-        <v>0.4708912727514444</v>
+        <v>421.1520872769342</v>
       </c>
       <c r="R10">
-        <v>4.238021454763</v>
+        <v>3790.368785492408</v>
       </c>
       <c r="S10">
-        <v>0.0001148198483747742</v>
+        <v>0.1052845381423703</v>
       </c>
       <c r="T10">
-        <v>0.0001148198483747742</v>
+        <v>0.1052845381423703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H11">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I11">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J11">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N11">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q11">
-        <v>0.4097048999804445</v>
+        <v>242.0084554734969</v>
       </c>
       <c r="R11">
-        <v>3.687344099824</v>
+        <v>2178.076099261472</v>
       </c>
       <c r="S11">
-        <v>9.990045944000215E-05</v>
+        <v>0.060500112027988</v>
       </c>
       <c r="T11">
-        <v>9.99004594400021E-05</v>
+        <v>0.06050011202798801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H12">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I12">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J12">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N12">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O12">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P12">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q12">
-        <v>0.1060253619477778</v>
+        <v>118.2751172123075</v>
       </c>
       <c r="R12">
-        <v>0.95422825753</v>
+        <v>1064.476054910768</v>
       </c>
       <c r="S12">
-        <v>2.585271099120632E-05</v>
+        <v>0.02956780095748207</v>
       </c>
       <c r="T12">
-        <v>2.58527109912063E-05</v>
+        <v>0.02956780095748207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H13">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I13">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J13">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N13">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O13">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P13">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q13">
-        <v>0.5332486736941111</v>
+        <v>527.3290532839146</v>
       </c>
       <c r="R13">
-        <v>4.799238063247</v>
+        <v>4745.961479555232</v>
       </c>
       <c r="S13">
-        <v>0.0001300247751500072</v>
+        <v>0.1318279013717499</v>
       </c>
       <c r="T13">
-        <v>0.0001300247751500072</v>
+        <v>0.13182790137175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H14">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I14">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J14">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N14">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O14">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P14">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q14">
-        <v>155.8673428561433</v>
+        <v>1.700500601339445</v>
       </c>
       <c r="R14">
-        <v>1402.80608570529</v>
+        <v>15.304505412055</v>
       </c>
       <c r="S14">
-        <v>0.03800593833211241</v>
+        <v>0.0004251110841702146</v>
       </c>
       <c r="T14">
-        <v>0.0380059383321124</v>
+        <v>0.0004251110841702146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H15">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I15">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J15">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>22.364335</v>
       </c>
       <c r="N15">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q15">
-        <v>39.690991719575</v>
+        <v>0.3290315512983333</v>
       </c>
       <c r="R15">
-        <v>357.218925476175</v>
+        <v>2.961283961685</v>
       </c>
       <c r="S15">
-        <v>0.009678059277797564</v>
+        <v>8.225516614840699E-05</v>
       </c>
       <c r="T15">
-        <v>0.00967805927779756</v>
+        <v>8.225516614840701E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H16">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I16">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J16">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N16">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q16">
-        <v>56.80349356725166</v>
+        <v>0.3556905248874445</v>
       </c>
       <c r="R16">
-        <v>511.231442105265</v>
+        <v>3.201214723987001</v>
       </c>
       <c r="S16">
-        <v>0.01385068888713927</v>
+        <v>8.8919689028555E-05</v>
       </c>
       <c r="T16">
-        <v>0.01385068888713926</v>
+        <v>8.891968902855502E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H17">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I17">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J17">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N17">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q17">
-        <v>49.42259709874666</v>
+        <v>0.2043919931897778</v>
       </c>
       <c r="R17">
-        <v>444.8033738887199</v>
+        <v>1.839527938708</v>
       </c>
       <c r="S17">
-        <v>0.01205096682299521</v>
+        <v>5.109630761210956E-05</v>
       </c>
       <c r="T17">
-        <v>0.01205096682299521</v>
+        <v>5.109630761210957E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H18">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I18">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J18">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N18">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O18">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P18">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q18">
-        <v>12.78981224301667</v>
+        <v>0.0998910839891111</v>
       </c>
       <c r="R18">
-        <v>115.10831018715</v>
+        <v>0.899019755902</v>
       </c>
       <c r="S18">
-        <v>0.003118605902174261</v>
+        <v>2.497194472033732E-05</v>
       </c>
       <c r="T18">
-        <v>0.003118605902174259</v>
+        <v>2.497194472033732E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.044137</v>
+      </c>
+      <c r="I19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="J19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.271468</v>
+      </c>
+      <c r="N19">
+        <v>90.814404</v>
+      </c>
+      <c r="O19">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="P19">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="Q19">
+        <v>0.4453639277053333</v>
+      </c>
+      <c r="R19">
+        <v>4.008275349348</v>
+      </c>
+      <c r="S19">
+        <v>0.0001113372979744842</v>
+      </c>
+      <c r="T19">
+        <v>0.0001113372979744842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.161619</v>
+      </c>
+      <c r="I20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>115.5833383333333</v>
+      </c>
+      <c r="N20">
+        <v>346.750015</v>
+      </c>
+      <c r="O20">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="P20">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="Q20">
+        <v>83.28238007492057</v>
+      </c>
+      <c r="R20">
+        <v>749.5414206742851</v>
+      </c>
+      <c r="S20">
+        <v>0.02081990612531289</v>
+      </c>
+      <c r="T20">
+        <v>0.02081990612531289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.161619</v>
+      </c>
+      <c r="I21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>22.364335</v>
+      </c>
+      <c r="N21">
+        <v>67.09300499999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="P21">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="Q21">
+        <v>16.11439048612166</v>
+      </c>
+      <c r="R21">
+        <v>145.029514375095</v>
+      </c>
+      <c r="S21">
+        <v>0.004028464326858494</v>
+      </c>
+      <c r="T21">
+        <v>0.004028464326858496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.161619</v>
+      </c>
+      <c r="I22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.17635033333334</v>
+      </c>
+      <c r="N22">
+        <v>72.52905100000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="P22">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="Q22">
+        <v>17.42001941039656</v>
+      </c>
+      <c r="R22">
+        <v>156.780174693569</v>
+      </c>
+      <c r="S22">
+        <v>0.004354860758053697</v>
+      </c>
+      <c r="T22">
+        <v>0.004354860758053698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.161619</v>
+      </c>
+      <c r="I23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.89256133333333</v>
+      </c>
+      <c r="N23">
+        <v>41.677684</v>
+      </c>
+      <c r="O23">
+        <v>0.06519951828832743</v>
+      </c>
+      <c r="P23">
+        <v>0.06519951828832744</v>
+      </c>
+      <c r="Q23">
+        <v>10.01014151226622</v>
+      </c>
+      <c r="R23">
+        <v>90.091273610396</v>
+      </c>
+      <c r="S23">
+        <v>0.002502452576391251</v>
+      </c>
+      <c r="T23">
+        <v>0.002502452576391252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.161619</v>
+      </c>
+      <c r="I24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.789615333333333</v>
+      </c>
+      <c r="N24">
+        <v>20.368846</v>
+      </c>
+      <c r="O24">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="P24">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="Q24">
+        <v>4.892187169074889</v>
+      </c>
+      <c r="R24">
+        <v>44.02968452167399</v>
+      </c>
+      <c r="S24">
+        <v>0.00122300632517912</v>
+      </c>
+      <c r="T24">
+        <v>0.00122300632517912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.161619</v>
+      </c>
+      <c r="I25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30.271468</v>
+      </c>
+      <c r="N25">
+        <v>90.814404</v>
+      </c>
+      <c r="O25">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="P25">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="Q25">
+        <v>21.81179346223067</v>
+      </c>
+      <c r="R25">
+        <v>196.306141160076</v>
+      </c>
+      <c r="S25">
+        <v>0.005452767943229185</v>
+      </c>
+      <c r="T25">
+        <v>0.005452767943229186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.265004</v>
+      </c>
+      <c r="I26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>115.5833383333333</v>
+      </c>
+      <c r="N26">
+        <v>346.750015</v>
+      </c>
+      <c r="O26">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="P26">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="Q26">
+        <v>10.21001566389556</v>
+      </c>
+      <c r="R26">
+        <v>91.89014097506001</v>
+      </c>
+      <c r="S26">
+        <v>0.002552419460983836</v>
+      </c>
+      <c r="T26">
+        <v>0.002552419460983836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.265004</v>
+      </c>
+      <c r="I27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>22.364335</v>
+      </c>
+      <c r="N27">
+        <v>67.09300499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="P27">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="Q27">
+        <v>1.975546077446666</v>
+      </c>
+      <c r="R27">
+        <v>17.77991469702</v>
+      </c>
+      <c r="S27">
+        <v>0.0004938701780817103</v>
+      </c>
+      <c r="T27">
+        <v>0.0004938701780817105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.265004</v>
+      </c>
+      <c r="I28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.17635033333334</v>
+      </c>
+      <c r="N28">
+        <v>72.52905100000001</v>
+      </c>
+      <c r="O28">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="P28">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="Q28">
+        <v>2.135609847911556</v>
+      </c>
+      <c r="R28">
+        <v>19.220488631204</v>
+      </c>
+      <c r="S28">
+        <v>0.0005338847966858461</v>
+      </c>
+      <c r="T28">
+        <v>0.0005338847966858463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.265004</v>
+      </c>
+      <c r="I29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.89256133333333</v>
+      </c>
+      <c r="N29">
+        <v>41.677684</v>
+      </c>
+      <c r="O29">
+        <v>0.06519951828832743</v>
+      </c>
+      <c r="P29">
+        <v>0.06519951828832744</v>
+      </c>
+      <c r="Q29">
+        <v>1.227194774526222</v>
+      </c>
+      <c r="R29">
+        <v>11.044752970736</v>
+      </c>
+      <c r="S29">
+        <v>0.0003067885425479639</v>
+      </c>
+      <c r="T29">
+        <v>0.000306788542547964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.774745</v>
-      </c>
-      <c r="H19">
-        <v>5.324235</v>
-      </c>
-      <c r="I19">
-        <v>0.09238911453002845</v>
-      </c>
-      <c r="J19">
-        <v>0.09238911453002843</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>36.24501033333333</v>
-      </c>
-      <c r="N19">
-        <v>108.735031</v>
-      </c>
-      <c r="O19">
-        <v>0.1697695165452834</v>
-      </c>
-      <c r="P19">
-        <v>0.1697695165452833</v>
-      </c>
-      <c r="Q19">
-        <v>64.32565086403167</v>
-      </c>
-      <c r="R19">
-        <v>578.9308577762851</v>
-      </c>
-      <c r="S19">
-        <v>0.01568485530780974</v>
-      </c>
-      <c r="T19">
-        <v>0.01568485530780974</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.265004</v>
+      </c>
+      <c r="I30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.789615333333333</v>
+      </c>
+      <c r="N30">
+        <v>20.368846</v>
+      </c>
+      <c r="O30">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="P30">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="Q30">
+        <v>0.5997584072648889</v>
+      </c>
+      <c r="R30">
+        <v>5.397825665384</v>
+      </c>
+      <c r="S30">
+        <v>0.0001499346407474063</v>
+      </c>
+      <c r="T30">
+        <v>0.0001499346407474063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.265004</v>
+      </c>
+      <c r="I31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>30.271468</v>
+      </c>
+      <c r="N31">
+        <v>90.814404</v>
+      </c>
+      <c r="O31">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="P31">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="Q31">
+        <v>2.674020035290667</v>
+      </c>
+      <c r="R31">
+        <v>24.066180317616</v>
+      </c>
+      <c r="S31">
+        <v>0.0006684828899207062</v>
+      </c>
+      <c r="T31">
+        <v>0.0006684828899207063</v>
       </c>
     </row>
   </sheetData>
